--- a/animal_rescue_info_wmids.xlsx
+++ b/animal_rescue_info_wmids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wmfs-my.sharepoint.com/personal/amy_ciclaire_wmfs_net/Documents/Desktop - Laptop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wmfs.sharepoint.com/sites/StrategicHubAnalysts/Shared Documents/Regular Reports/Annually/Animal Rescues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4671A9CC-3C77-452C-BC30-4B71059F4DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{FFCDC411-DBD3-41A3-9826-FAB5098D9AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEDC53F3-10CC-4676-A219-092D989CFBF1}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="1690">
   <si>
     <t>Incdate</t>
   </si>
@@ -5034,6 +5034,78 @@
   </si>
   <si>
     <t>cat stuck on pithced roof for 4 days</t>
+  </si>
+  <si>
+    <t>Dog stuck between wall and fence</t>
+  </si>
+  <si>
+    <t>Cat trapped behind cupboard</t>
+  </si>
+  <si>
+    <t>Horse trapped in mud</t>
+  </si>
+  <si>
+    <t>Deer trapped in railing</t>
+  </si>
+  <si>
+    <t>Dog underneath shed</t>
+  </si>
+  <si>
+    <t>Goose stuck on roof</t>
+  </si>
+  <si>
+    <t>Cat stuck between conservatory and brick wall</t>
+  </si>
+  <si>
+    <t>Dog stuck in wooden stool</t>
+  </si>
+  <si>
+    <t>Cat stuck in springs of car</t>
+  </si>
+  <si>
+    <t>Cat stuck between two brick walls</t>
+  </si>
+  <si>
+    <t>Dog trapped In railing</t>
+  </si>
+  <si>
+    <t>Dog stuck in metal crate</t>
+  </si>
+  <si>
+    <t>Hawk trapped in tree</t>
+  </si>
+  <si>
+    <t>Cat stuck behind car instrumentation panel</t>
+  </si>
+  <si>
+    <t>Cat stuck on Motorway pillar</t>
+  </si>
+  <si>
+    <t>Cat stuck on motorway bridge</t>
+  </si>
+  <si>
+    <t>Cat stuck behind gates</t>
+  </si>
+  <si>
+    <t>Cat lost under floorboards</t>
+  </si>
+  <si>
+    <t>Horse trapped in equipment</t>
+  </si>
+  <si>
+    <t>Horse fallen down muddy bank</t>
+  </si>
+  <si>
+    <t>Pigeon trapped in kitchen extraction unit</t>
+  </si>
+  <si>
+    <t>Cat stuck behind plaster board wall</t>
+  </si>
+  <si>
+    <t>Pigeon stuck in balcony netting</t>
+  </si>
+  <si>
+    <t>Parrot trapped by its lead</t>
   </si>
 </sst>
 </file>
@@ -5100,7 +5172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5130,6 +5202,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5266,10 +5341,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25D4E2EF-71B1-45CE-8150-360D94D8719F}" name="Table1" displayName="Table1" ref="A3:D1414" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A3:D1414" xr:uid="{C31DCB6B-6AC9-4405-8302-E470A165B054}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D1414">
-    <sortCondition ref="A1230:A1414"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25D4E2EF-71B1-45CE-8150-360D94D8719F}" name="Table1" displayName="Table1" ref="A3:D1447" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A3:D1447" xr:uid="{C31DCB6B-6AC9-4405-8302-E470A165B054}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D1447">
+    <sortCondition ref="A1438:A1447"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{45FCE4F1-1411-4723-8902-C11D3C857FD3}" name="Incdate" dataDxfId="3"/>
@@ -5549,9 +5624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1488CF52-CD06-45AC-B167-DF240BF9A87F}">
-  <dimension ref="A1:D1414"/>
+  <dimension ref="A1:D1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1249" workbookViewId="0">
+      <selection activeCell="D1266" sqref="D1266"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20393,7 +20470,7 @@
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1062" s="12">
+      <c r="A1062" s="5">
         <v>44287</v>
       </c>
       <c r="B1062" t="s">
@@ -20402,12 +20479,12 @@
       <c r="C1062" t="s">
         <v>33</v>
       </c>
-      <c r="D1062" s="11" t="s">
+      <c r="D1062" t="s">
         <v>1516</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1063" s="12">
+      <c r="A1063" s="5">
         <v>44289</v>
       </c>
       <c r="B1063" t="s">
@@ -20416,12 +20493,12 @@
       <c r="C1063" t="s">
         <v>40</v>
       </c>
-      <c r="D1063" s="11" t="s">
+      <c r="D1063" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1064" s="12">
+      <c r="A1064" s="5">
         <v>44291</v>
       </c>
       <c r="B1064" t="s">
@@ -20430,12 +20507,12 @@
       <c r="C1064" t="s">
         <v>35</v>
       </c>
-      <c r="D1064" s="11" t="s">
+      <c r="D1064" t="s">
         <v>1518</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1065" s="12">
+      <c r="A1065" s="5">
         <v>44291</v>
       </c>
       <c r="B1065" t="s">
@@ -20444,12 +20521,12 @@
       <c r="C1065" t="s">
         <v>99</v>
       </c>
-      <c r="D1065" s="11" t="s">
+      <c r="D1065" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1066" s="12">
+      <c r="A1066" s="5">
         <v>44292</v>
       </c>
       <c r="B1066" t="s">
@@ -20458,12 +20535,12 @@
       <c r="C1066" t="s">
         <v>1405</v>
       </c>
-      <c r="D1066" s="11" t="s">
+      <c r="D1066" t="s">
         <v>1520</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1067" s="12">
+      <c r="A1067" s="5">
         <v>44293</v>
       </c>
       <c r="B1067" t="s">
@@ -20472,12 +20549,12 @@
       <c r="C1067" t="s">
         <v>88</v>
       </c>
-      <c r="D1067" s="11" t="s">
+      <c r="D1067" t="s">
         <v>1521</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1068" s="12">
+      <c r="A1068" s="5">
         <v>44293</v>
       </c>
       <c r="B1068" t="s">
@@ -20486,12 +20563,12 @@
       <c r="C1068" t="s">
         <v>122</v>
       </c>
-      <c r="D1068" s="11" t="s">
+      <c r="D1068" t="s">
         <v>1522</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1069" s="12">
+      <c r="A1069" s="5">
         <v>44296</v>
       </c>
       <c r="B1069" t="s">
@@ -20500,12 +20577,12 @@
       <c r="C1069" t="s">
         <v>139</v>
       </c>
-      <c r="D1069" s="11" t="s">
+      <c r="D1069" t="s">
         <v>1523</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1070" s="12">
+      <c r="A1070" s="5">
         <v>44301</v>
       </c>
       <c r="B1070" t="s">
@@ -20514,12 +20591,12 @@
       <c r="C1070" t="s">
         <v>29</v>
       </c>
-      <c r="D1070" s="11" t="s">
+      <c r="D1070" t="s">
         <v>1524</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1071" s="12">
+      <c r="A1071" s="5">
         <v>44303</v>
       </c>
       <c r="B1071" t="s">
@@ -20528,12 +20605,12 @@
       <c r="C1071" t="s">
         <v>85</v>
       </c>
-      <c r="D1071" s="11" t="s">
+      <c r="D1071" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1072" s="12">
+      <c r="A1072" s="5">
         <v>44305</v>
       </c>
       <c r="B1072" t="s">
@@ -20542,12 +20619,12 @@
       <c r="C1072" t="s">
         <v>145</v>
       </c>
-      <c r="D1072" s="11" t="s">
+      <c r="D1072" t="s">
         <v>1525</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1073" s="12">
+      <c r="A1073" s="5">
         <v>44307</v>
       </c>
       <c r="B1073" t="s">
@@ -20556,12 +20633,12 @@
       <c r="C1073" t="s">
         <v>118</v>
       </c>
-      <c r="D1073" s="11" t="s">
+      <c r="D1073" t="s">
         <v>1526</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1074" s="12">
+      <c r="A1074" s="5">
         <v>44308</v>
       </c>
       <c r="B1074" t="s">
@@ -20570,12 +20647,12 @@
       <c r="C1074" t="s">
         <v>109</v>
       </c>
-      <c r="D1074" s="11" t="s">
+      <c r="D1074" t="s">
         <v>1527</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1075" s="12">
+      <c r="A1075" s="5">
         <v>44309</v>
       </c>
       <c r="B1075" t="s">
@@ -20584,12 +20661,12 @@
       <c r="C1075" t="s">
         <v>46</v>
       </c>
-      <c r="D1075" s="11" t="s">
+      <c r="D1075" t="s">
         <v>1528</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1076" s="12">
+      <c r="A1076" s="5">
         <v>44309</v>
       </c>
       <c r="B1076" t="s">
@@ -20598,12 +20675,12 @@
       <c r="C1076" t="s">
         <v>333</v>
       </c>
-      <c r="D1076" s="11" t="s">
+      <c r="D1076" t="s">
         <v>1529</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1077" s="12">
+      <c r="A1077" s="5">
         <v>44310</v>
       </c>
       <c r="B1077" t="s">
@@ -20612,12 +20689,12 @@
       <c r="C1077" t="s">
         <v>54</v>
       </c>
-      <c r="D1077" s="11" t="s">
+      <c r="D1077" t="s">
         <v>1530</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1078" s="12">
+      <c r="A1078" s="5">
         <v>44318</v>
       </c>
       <c r="B1078" t="s">
@@ -20626,12 +20703,12 @@
       <c r="C1078" t="s">
         <v>1502</v>
       </c>
-      <c r="D1078" s="11" t="s">
+      <c r="D1078" t="s">
         <v>1531</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1079" s="12">
+      <c r="A1079" s="5">
         <v>44321</v>
       </c>
       <c r="B1079" t="s">
@@ -20640,12 +20717,12 @@
       <c r="C1079" t="s">
         <v>43</v>
       </c>
-      <c r="D1079" s="11" t="s">
+      <c r="D1079" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1080" s="12">
+      <c r="A1080" s="5">
         <v>44325</v>
       </c>
       <c r="B1080" t="s">
@@ -20654,12 +20731,12 @@
       <c r="C1080" t="s">
         <v>1423</v>
       </c>
-      <c r="D1080" s="11" t="s">
+      <c r="D1080" t="s">
         <v>1532</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1081" s="12">
+      <c r="A1081" s="5">
         <v>44326</v>
       </c>
       <c r="B1081" t="s">
@@ -20668,12 +20745,12 @@
       <c r="C1081" t="s">
         <v>129</v>
       </c>
-      <c r="D1081" s="11" t="s">
+      <c r="D1081" t="s">
         <v>1533</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1082" s="12">
+      <c r="A1082" s="5">
         <v>44327</v>
       </c>
       <c r="B1082" t="s">
@@ -20682,12 +20759,12 @@
       <c r="C1082" t="s">
         <v>99</v>
       </c>
-      <c r="D1082" s="11" t="s">
+      <c r="D1082" t="s">
         <v>1534</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1083" s="12">
+      <c r="A1083" s="5">
         <v>44328</v>
       </c>
       <c r="B1083" t="s">
@@ -20696,12 +20773,12 @@
       <c r="C1083" t="s">
         <v>67</v>
       </c>
-      <c r="D1083" s="11" t="s">
+      <c r="D1083" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1084" s="12">
+      <c r="A1084" s="5">
         <v>44329</v>
       </c>
       <c r="B1084" t="s">
@@ -20710,12 +20787,12 @@
       <c r="C1084" t="s">
         <v>46</v>
       </c>
-      <c r="D1084" s="11" t="s">
+      <c r="D1084" t="s">
         <v>1536</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1085" s="12">
+      <c r="A1085" s="5">
         <v>44330</v>
       </c>
       <c r="B1085" t="s">
@@ -20724,12 +20801,12 @@
       <c r="C1085" t="s">
         <v>132</v>
       </c>
-      <c r="D1085" s="11" t="s">
+      <c r="D1085" t="s">
         <v>1537</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1086" s="12">
+      <c r="A1086" s="5">
         <v>44333</v>
       </c>
       <c r="B1086" t="s">
@@ -20738,12 +20815,12 @@
       <c r="C1086" t="s">
         <v>55</v>
       </c>
-      <c r="D1086" s="11" t="s">
+      <c r="D1086" t="s">
         <v>1538</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1087" s="12">
+      <c r="A1087" s="5">
         <v>44333</v>
       </c>
       <c r="B1087" t="s">
@@ -20752,12 +20829,12 @@
       <c r="C1087" t="s">
         <v>154</v>
       </c>
-      <c r="D1087" s="11" t="s">
+      <c r="D1087" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1088" s="12">
+      <c r="A1088" s="5">
         <v>44333</v>
       </c>
       <c r="B1088" t="s">
@@ -20766,12 +20843,12 @@
       <c r="C1088" t="s">
         <v>185</v>
       </c>
-      <c r="D1088" s="11" t="s">
+      <c r="D1088" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1089" s="12">
+      <c r="A1089" s="5">
         <v>44334</v>
       </c>
       <c r="B1089" t="s">
@@ -20780,12 +20857,12 @@
       <c r="C1089" t="s">
         <v>142</v>
       </c>
-      <c r="D1089" s="11" t="s">
+      <c r="D1089" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1090" s="12">
+      <c r="A1090" s="5">
         <v>44335</v>
       </c>
       <c r="B1090" t="s">
@@ -20794,12 +20871,12 @@
       <c r="C1090" t="s">
         <v>61</v>
       </c>
-      <c r="D1090" s="11" t="s">
+      <c r="D1090" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1091" s="12">
+      <c r="A1091" s="5">
         <v>44339</v>
       </c>
       <c r="B1091" t="s">
@@ -20808,12 +20885,12 @@
       <c r="C1091" t="s">
         <v>125</v>
       </c>
-      <c r="D1091" s="11" t="s">
+      <c r="D1091" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1092" s="12">
+      <c r="A1092" s="5">
         <v>44342</v>
       </c>
       <c r="B1092" t="s">
@@ -20822,12 +20899,12 @@
       <c r="C1092" t="s">
         <v>150</v>
       </c>
-      <c r="D1092" s="11" t="s">
+      <c r="D1092" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1093" s="12">
+      <c r="A1093" s="5">
         <v>44345</v>
       </c>
       <c r="B1093" t="s">
@@ -20836,12 +20913,12 @@
       <c r="C1093" t="s">
         <v>98</v>
       </c>
-      <c r="D1093" s="11" t="s">
+      <c r="D1093" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1094" s="12">
+      <c r="A1094" s="5">
         <v>44346</v>
       </c>
       <c r="B1094" t="s">
@@ -20850,12 +20927,12 @@
       <c r="C1094" t="s">
         <v>49</v>
       </c>
-      <c r="D1094" s="11" t="s">
+      <c r="D1094" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1095" s="12">
+      <c r="A1095" s="5">
         <v>44346</v>
       </c>
       <c r="B1095" t="s">
@@ -20864,12 +20941,12 @@
       <c r="C1095" t="s">
         <v>129</v>
       </c>
-      <c r="D1095" s="11" t="s">
+      <c r="D1095" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1096" s="12">
+      <c r="A1096" s="5">
         <v>44347</v>
       </c>
       <c r="B1096" t="s">
@@ -20878,12 +20955,12 @@
       <c r="C1096" t="s">
         <v>1512</v>
       </c>
-      <c r="D1096" s="11" t="s">
+      <c r="D1096" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1097" s="12">
+      <c r="A1097" s="5">
         <v>44348</v>
       </c>
       <c r="B1097" t="s">
@@ -20892,12 +20969,12 @@
       <c r="C1097" t="s">
         <v>16</v>
       </c>
-      <c r="D1097" s="11" t="s">
+      <c r="D1097" t="s">
         <v>1547</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1098" s="12">
+      <c r="A1098" s="5">
         <v>44348</v>
       </c>
       <c r="B1098" t="s">
@@ -20906,12 +20983,12 @@
       <c r="C1098" t="s">
         <v>1512</v>
       </c>
-      <c r="D1098" s="11" t="s">
+      <c r="D1098" t="s">
         <v>1548</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1099" s="12">
+      <c r="A1099" s="5">
         <v>44348</v>
       </c>
       <c r="B1099" t="s">
@@ -20920,12 +20997,12 @@
       <c r="C1099" t="s">
         <v>339</v>
       </c>
-      <c r="D1099" s="11" t="s">
+      <c r="D1099" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1100" s="12">
+      <c r="A1100" s="5">
         <v>44350</v>
       </c>
       <c r="B1100" t="s">
@@ -20934,12 +21011,12 @@
       <c r="C1100" t="s">
         <v>16</v>
       </c>
-      <c r="D1100" s="11" t="s">
+      <c r="D1100" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1101" s="12">
+      <c r="A1101" s="5">
         <v>44350</v>
       </c>
       <c r="B1101" t="s">
@@ -20948,12 +21025,12 @@
       <c r="C1101" t="s">
         <v>102</v>
       </c>
-      <c r="D1101" s="11" t="s">
+      <c r="D1101" t="s">
         <v>1517</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1102" s="12">
+      <c r="A1102" s="5">
         <v>44350</v>
       </c>
       <c r="B1102" t="s">
@@ -20962,12 +21039,12 @@
       <c r="C1102" t="s">
         <v>1423</v>
       </c>
-      <c r="D1102" s="11" t="s">
+      <c r="D1102" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1103" s="12">
+      <c r="A1103" s="5">
         <v>44351</v>
       </c>
       <c r="B1103" t="s">
@@ -20976,12 +21053,12 @@
       <c r="C1103" t="s">
         <v>335</v>
       </c>
-      <c r="D1103" s="11" t="s">
+      <c r="D1103" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1104" s="12">
+      <c r="A1104" s="5">
         <v>44351</v>
       </c>
       <c r="B1104" t="s">
@@ -20990,12 +21067,12 @@
       <c r="C1104" t="s">
         <v>19</v>
       </c>
-      <c r="D1104" s="11" t="s">
+      <c r="D1104" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1105" s="12">
+      <c r="A1105" s="5">
         <v>44352</v>
       </c>
       <c r="B1105" t="s">
@@ -21004,12 +21081,12 @@
       <c r="C1105" t="s">
         <v>21</v>
       </c>
-      <c r="D1105" s="11" t="s">
+      <c r="D1105" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1106" s="12">
+      <c r="A1106" s="5">
         <v>44352</v>
       </c>
       <c r="B1106" t="s">
@@ -21018,12 +21095,12 @@
       <c r="C1106" t="s">
         <v>43</v>
       </c>
-      <c r="D1106" s="11" t="s">
+      <c r="D1106" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1107" s="12">
+      <c r="A1107" s="5">
         <v>44352</v>
       </c>
       <c r="B1107" t="s">
@@ -21032,12 +21109,12 @@
       <c r="C1107" t="s">
         <v>77</v>
       </c>
-      <c r="D1107" s="11" t="s">
+      <c r="D1107" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1108" s="12">
+      <c r="A1108" s="5">
         <v>44354</v>
       </c>
       <c r="B1108" t="s">
@@ -21046,12 +21123,12 @@
       <c r="C1108" t="s">
         <v>114</v>
       </c>
-      <c r="D1108" s="11" t="s">
+      <c r="D1108" t="s">
         <v>1557</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1109" s="12">
+      <c r="A1109" s="5">
         <v>44356</v>
       </c>
       <c r="B1109" t="s">
@@ -21060,12 +21137,12 @@
       <c r="C1109" t="s">
         <v>19</v>
       </c>
-      <c r="D1109" s="11" t="s">
+      <c r="D1109" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1110" s="12">
+      <c r="A1110" s="5">
         <v>44356</v>
       </c>
       <c r="B1110" t="s">
@@ -21074,12 +21151,12 @@
       <c r="C1110" t="s">
         <v>115</v>
       </c>
-      <c r="D1110" s="11" t="s">
+      <c r="D1110" t="s">
         <v>1558</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1111" s="12">
+      <c r="A1111" s="5">
         <v>44357</v>
       </c>
       <c r="B1111" t="s">
@@ -21088,12 +21165,12 @@
       <c r="C1111" t="s">
         <v>11</v>
       </c>
-      <c r="D1111" s="11" t="s">
+      <c r="D1111" t="s">
         <v>1559</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1112" s="12">
+      <c r="A1112" s="5">
         <v>44357</v>
       </c>
       <c r="B1112" t="s">
@@ -21102,12 +21179,12 @@
       <c r="C1112" t="s">
         <v>99</v>
       </c>
-      <c r="D1112" s="11" t="s">
+      <c r="D1112" t="s">
         <v>1560</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1113" s="12">
+      <c r="A1113" s="5">
         <v>44359</v>
       </c>
       <c r="B1113" t="s">
@@ -21116,12 +21193,12 @@
       <c r="C1113" t="s">
         <v>336</v>
       </c>
-      <c r="D1113" s="11" t="s">
+      <c r="D1113" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1114" s="12">
+      <c r="A1114" s="5">
         <v>44361</v>
       </c>
       <c r="B1114" t="s">
@@ -21130,12 +21207,12 @@
       <c r="C1114" t="s">
         <v>88</v>
       </c>
-      <c r="D1114" s="11" t="s">
+      <c r="D1114" t="s">
         <v>1562</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1115" s="12">
+      <c r="A1115" s="5">
         <v>44362</v>
       </c>
       <c r="B1115" t="s">
@@ -21144,12 +21221,12 @@
       <c r="C1115" t="s">
         <v>1513</v>
       </c>
-      <c r="D1115" s="11" t="s">
+      <c r="D1115" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1116" s="12">
+      <c r="A1116" s="5">
         <v>44362</v>
       </c>
       <c r="B1116" t="s">
@@ -21158,12 +21235,12 @@
       <c r="C1116" t="s">
         <v>16</v>
       </c>
-      <c r="D1116" s="11" t="s">
+      <c r="D1116" t="s">
         <v>1564</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1117" s="12">
+      <c r="A1117" s="5">
         <v>44363</v>
       </c>
       <c r="B1117" t="s">
@@ -21172,12 +21249,12 @@
       <c r="C1117" t="s">
         <v>1494</v>
       </c>
-      <c r="D1117" s="11" t="s">
+      <c r="D1117" t="s">
         <v>1565</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1118" s="12">
+      <c r="A1118" s="5">
         <v>44364</v>
       </c>
       <c r="B1118" t="s">
@@ -21186,12 +21263,12 @@
       <c r="C1118" t="s">
         <v>17</v>
       </c>
-      <c r="D1118" s="11" t="s">
+      <c r="D1118" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1119" s="12">
+      <c r="A1119" s="5">
         <v>44364</v>
       </c>
       <c r="B1119" t="s">
@@ -21200,12 +21277,12 @@
       <c r="C1119" t="s">
         <v>16</v>
       </c>
-      <c r="D1119" s="11" t="s">
+      <c r="D1119" t="s">
         <v>1567</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1120" s="12">
+      <c r="A1120" s="5">
         <v>44368</v>
       </c>
       <c r="B1120" t="s">
@@ -21214,12 +21291,12 @@
       <c r="C1120" t="s">
         <v>50</v>
       </c>
-      <c r="D1120" s="11" t="s">
+      <c r="D1120" t="s">
         <v>1568</v>
       </c>
     </row>
     <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1121" s="12">
+      <c r="A1121" s="5">
         <v>44368</v>
       </c>
       <c r="B1121" t="s">
@@ -21228,12 +21305,12 @@
       <c r="C1121" t="s">
         <v>335</v>
       </c>
-      <c r="D1121" s="11" t="s">
+      <c r="D1121" t="s">
         <v>1569</v>
       </c>
     </row>
     <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1122" s="12">
+      <c r="A1122" s="5">
         <v>44369</v>
       </c>
       <c r="B1122" t="s">
@@ -21242,12 +21319,12 @@
       <c r="C1122" t="s">
         <v>29</v>
       </c>
-      <c r="D1122" s="11" t="s">
+      <c r="D1122" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1123" s="12">
+      <c r="A1123" s="5">
         <v>44371</v>
       </c>
       <c r="B1123" t="s">
@@ -21256,12 +21333,12 @@
       <c r="C1123" t="s">
         <v>32</v>
       </c>
-      <c r="D1123" s="11" t="s">
+      <c r="D1123" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1124" s="12">
+      <c r="A1124" s="5">
         <v>44371</v>
       </c>
       <c r="B1124" t="s">
@@ -21270,12 +21347,12 @@
       <c r="C1124" t="s">
         <v>22</v>
       </c>
-      <c r="D1124" s="11" t="s">
+      <c r="D1124" t="s">
         <v>1561</v>
       </c>
     </row>
     <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1125" s="12">
+      <c r="A1125" s="5">
         <v>44372</v>
       </c>
       <c r="B1125" t="s">
@@ -21284,12 +21361,12 @@
       <c r="C1125" t="s">
         <v>140</v>
       </c>
-      <c r="D1125" s="11" t="s">
+      <c r="D1125" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1126" s="12">
+      <c r="A1126" s="5">
         <v>44372</v>
       </c>
       <c r="B1126" t="s">
@@ -21298,12 +21375,12 @@
       <c r="C1126" t="s">
         <v>106</v>
       </c>
-      <c r="D1126" s="11" t="s">
+      <c r="D1126" t="s">
         <v>1573</v>
       </c>
     </row>
     <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1127" s="12">
+      <c r="A1127" s="5">
         <v>44373</v>
       </c>
       <c r="B1127" t="s">
@@ -21312,12 +21389,12 @@
       <c r="C1127" t="s">
         <v>157</v>
       </c>
-      <c r="D1127" s="11" t="s">
+      <c r="D1127" t="s">
         <v>1574</v>
       </c>
     </row>
     <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1128" s="12">
+      <c r="A1128" s="5">
         <v>44374</v>
       </c>
       <c r="B1128" t="s">
@@ -21326,12 +21403,12 @@
       <c r="C1128" t="s">
         <v>115</v>
       </c>
-      <c r="D1128" s="11" t="s">
+      <c r="D1128" t="s">
         <v>1575</v>
       </c>
     </row>
     <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1129" s="12">
+      <c r="A1129" s="5">
         <v>44376</v>
       </c>
       <c r="B1129" t="s">
@@ -21340,12 +21417,12 @@
       <c r="C1129" t="s">
         <v>104</v>
       </c>
-      <c r="D1129" s="11" t="s">
+      <c r="D1129" t="s">
         <v>1576</v>
       </c>
     </row>
     <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1130" s="12">
+      <c r="A1130" s="5">
         <v>44377</v>
       </c>
       <c r="B1130" t="s">
@@ -21354,12 +21431,12 @@
       <c r="C1130" t="s">
         <v>11</v>
       </c>
-      <c r="D1130" s="11" t="s">
+      <c r="D1130" t="s">
         <v>1577</v>
       </c>
     </row>
     <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1131" s="12">
+      <c r="A1131" s="5">
         <v>44379</v>
       </c>
       <c r="B1131" t="s">
@@ -21368,12 +21445,12 @@
       <c r="C1131" t="s">
         <v>143</v>
       </c>
-      <c r="D1131" s="11" t="s">
+      <c r="D1131" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1132" s="12">
+      <c r="A1132" s="5">
         <v>44381</v>
       </c>
       <c r="B1132" t="s">
@@ -21382,12 +21459,12 @@
       <c r="C1132" t="s">
         <v>63</v>
       </c>
-      <c r="D1132" s="11" t="s">
+      <c r="D1132" t="s">
         <v>1579</v>
       </c>
     </row>
     <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1133" s="12">
+      <c r="A1133" s="5">
         <v>44382</v>
       </c>
       <c r="B1133" t="s">
@@ -21396,12 +21473,12 @@
       <c r="C1133" t="s">
         <v>75</v>
       </c>
-      <c r="D1133" s="11" t="s">
+      <c r="D1133" t="s">
         <v>1580</v>
       </c>
     </row>
     <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1134" s="12">
+      <c r="A1134" s="5">
         <v>44383</v>
       </c>
       <c r="B1134" t="s">
@@ -21410,12 +21487,12 @@
       <c r="C1134" t="s">
         <v>24</v>
       </c>
-      <c r="D1134" s="11" t="s">
+      <c r="D1134" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1135" s="12">
+      <c r="A1135" s="5">
         <v>44384</v>
       </c>
       <c r="B1135" t="s">
@@ -21424,12 +21501,12 @@
       <c r="C1135" t="s">
         <v>93</v>
       </c>
-      <c r="D1135" s="11" t="s">
+      <c r="D1135" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1136" s="12">
+      <c r="A1136" s="5">
         <v>44385</v>
       </c>
       <c r="B1136" t="s">
@@ -21438,12 +21515,12 @@
       <c r="C1136" t="s">
         <v>114</v>
       </c>
-      <c r="D1136" s="11" t="s">
+      <c r="D1136" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1137" s="12">
+      <c r="A1137" s="5">
         <v>44386</v>
       </c>
       <c r="B1137" t="s">
@@ -21452,12 +21529,12 @@
       <c r="C1137" t="s">
         <v>139</v>
       </c>
-      <c r="D1137" s="11" t="s">
+      <c r="D1137" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1138" s="12">
+      <c r="A1138" s="5">
         <v>44387</v>
       </c>
       <c r="B1138" t="s">
@@ -21466,12 +21543,12 @@
       <c r="C1138" t="s">
         <v>155</v>
       </c>
-      <c r="D1138" s="11" t="s">
+      <c r="D1138" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1139" s="12">
+      <c r="A1139" s="5">
         <v>44389</v>
       </c>
       <c r="B1139" t="s">
@@ -21480,12 +21557,12 @@
       <c r="C1139" t="s">
         <v>140</v>
       </c>
-      <c r="D1139" s="11" t="s">
+      <c r="D1139" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1140" s="12">
+      <c r="A1140" s="5">
         <v>44390</v>
       </c>
       <c r="B1140" t="s">
@@ -21494,12 +21571,12 @@
       <c r="C1140" t="s">
         <v>113</v>
       </c>
-      <c r="D1140" s="11" t="s">
+      <c r="D1140" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1141" s="12">
+      <c r="A1141" s="5">
         <v>44391</v>
       </c>
       <c r="B1141" t="s">
@@ -21508,12 +21585,12 @@
       <c r="C1141" t="s">
         <v>16</v>
       </c>
-      <c r="D1141" s="11" t="s">
+      <c r="D1141" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1142" s="12">
+      <c r="A1142" s="5">
         <v>44391</v>
       </c>
       <c r="B1142" t="s">
@@ -21522,12 +21599,12 @@
       <c r="C1142" t="s">
         <v>44</v>
       </c>
-      <c r="D1142" s="11" t="s">
+      <c r="D1142" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1143" s="12">
+      <c r="A1143" s="5">
         <v>44392</v>
       </c>
       <c r="B1143" t="s">
@@ -21536,12 +21613,12 @@
       <c r="C1143" t="s">
         <v>95</v>
       </c>
-      <c r="D1143" s="11" t="s">
+      <c r="D1143" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1144" s="12">
+      <c r="A1144" s="5">
         <v>44394</v>
       </c>
       <c r="B1144" t="s">
@@ -21550,12 +21627,12 @@
       <c r="C1144" t="s">
         <v>37</v>
       </c>
-      <c r="D1144" s="11" t="s">
+      <c r="D1144" t="s">
         <v>1591</v>
       </c>
     </row>
     <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1145" s="12">
+      <c r="A1145" s="5">
         <v>44395</v>
       </c>
       <c r="B1145" t="s">
@@ -21564,12 +21641,12 @@
       <c r="C1145" t="s">
         <v>18</v>
       </c>
-      <c r="D1145" s="11" t="s">
+      <c r="D1145" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1146" s="12">
+      <c r="A1146" s="5">
         <v>44398</v>
       </c>
       <c r="B1146" t="s">
@@ -21578,12 +21655,12 @@
       <c r="C1146" t="s">
         <v>337</v>
       </c>
-      <c r="D1146" s="11" t="s">
+      <c r="D1146" t="s">
         <v>1593</v>
       </c>
     </row>
     <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1147" s="12">
+      <c r="A1147" s="5">
         <v>44399</v>
       </c>
       <c r="B1147" t="s">
@@ -21592,12 +21669,12 @@
       <c r="C1147" t="s">
         <v>12</v>
       </c>
-      <c r="D1147" s="11" t="s">
+      <c r="D1147" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1148" s="12">
+      <c r="A1148" s="5">
         <v>44401</v>
       </c>
       <c r="B1148" t="s">
@@ -21606,12 +21683,12 @@
       <c r="C1148" t="s">
         <v>130</v>
       </c>
-      <c r="D1148" s="11" t="s">
+      <c r="D1148" t="s">
         <v>1595</v>
       </c>
     </row>
     <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1149" s="12">
+      <c r="A1149" s="5">
         <v>44401</v>
       </c>
       <c r="B1149" t="s">
@@ -21620,12 +21697,12 @@
       <c r="C1149" t="s">
         <v>17</v>
       </c>
-      <c r="D1149" s="11" t="s">
+      <c r="D1149" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1150" s="12">
+      <c r="A1150" s="5">
         <v>44401</v>
       </c>
       <c r="B1150" t="s">
@@ -21634,12 +21711,12 @@
       <c r="C1150" t="s">
         <v>38</v>
       </c>
-      <c r="D1150" s="11" t="s">
+      <c r="D1150" t="s">
         <v>1597</v>
       </c>
     </row>
     <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1151" s="12">
+      <c r="A1151" s="5">
         <v>44403</v>
       </c>
       <c r="B1151" t="s">
@@ -21648,12 +21725,12 @@
       <c r="C1151" t="s">
         <v>105</v>
       </c>
-      <c r="D1151" s="11" t="s">
+      <c r="D1151" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1152" s="12">
+      <c r="A1152" s="5">
         <v>44404</v>
       </c>
       <c r="B1152" t="s">
@@ -21662,12 +21739,12 @@
       <c r="C1152" t="s">
         <v>1514</v>
       </c>
-      <c r="D1152" s="11" t="s">
+      <c r="D1152" t="s">
         <v>1599</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1153" s="12">
+      <c r="A1153" s="5">
         <v>44407</v>
       </c>
       <c r="B1153" t="s">
@@ -21676,12 +21753,12 @@
       <c r="C1153" t="s">
         <v>343</v>
       </c>
-      <c r="D1153" s="11" t="s">
+      <c r="D1153" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1154" s="12">
+      <c r="A1154" s="5">
         <v>44410</v>
       </c>
       <c r="B1154" t="s">
@@ -21690,12 +21767,12 @@
       <c r="C1154" t="s">
         <v>181</v>
       </c>
-      <c r="D1154" s="11" t="s">
+      <c r="D1154" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1155" s="12">
+      <c r="A1155" s="5">
         <v>44412</v>
       </c>
       <c r="B1155" t="s">
@@ -21704,12 +21781,12 @@
       <c r="C1155" t="s">
         <v>1502</v>
       </c>
-      <c r="D1155" s="11" t="s">
+      <c r="D1155" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1156" s="12">
+      <c r="A1156" s="5">
         <v>44413</v>
       </c>
       <c r="B1156" t="s">
@@ -21718,12 +21795,12 @@
       <c r="C1156" t="s">
         <v>21</v>
       </c>
-      <c r="D1156" s="11" t="s">
+      <c r="D1156" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1157" s="12">
+      <c r="A1157" s="5">
         <v>44415</v>
       </c>
       <c r="B1157" t="s">
@@ -21732,12 +21809,12 @@
       <c r="C1157" t="s">
         <v>152</v>
       </c>
-      <c r="D1157" s="11" t="s">
+      <c r="D1157" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1158" s="12">
+      <c r="A1158" s="5">
         <v>44418</v>
       </c>
       <c r="B1158" t="s">
@@ -21746,12 +21823,12 @@
       <c r="C1158" t="s">
         <v>140</v>
       </c>
-      <c r="D1158" s="11" t="s">
+      <c r="D1158" t="s">
         <v>1605</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1159" s="12">
+      <c r="A1159" s="5">
         <v>44418</v>
       </c>
       <c r="B1159" t="s">
@@ -21760,12 +21837,12 @@
       <c r="C1159" t="s">
         <v>18</v>
       </c>
-      <c r="D1159" s="11" t="s">
+      <c r="D1159" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1160" s="12">
+      <c r="A1160" s="5">
         <v>44420</v>
       </c>
       <c r="B1160" t="s">
@@ -21774,12 +21851,12 @@
       <c r="C1160" t="s">
         <v>53</v>
       </c>
-      <c r="D1160" s="11" t="s">
+      <c r="D1160" t="s">
         <v>1606</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1161" s="12">
+      <c r="A1161" s="5">
         <v>44421</v>
       </c>
       <c r="B1161" t="s">
@@ -21788,12 +21865,12 @@
       <c r="C1161" t="s">
         <v>14</v>
       </c>
-      <c r="D1161" s="11" t="s">
+      <c r="D1161" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1162" s="12">
+      <c r="A1162" s="5">
         <v>44422</v>
       </c>
       <c r="B1162" t="s">
@@ -21802,12 +21879,12 @@
       <c r="C1162" t="s">
         <v>131</v>
       </c>
-      <c r="D1162" s="11" t="s">
+      <c r="D1162" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1163" s="12">
+      <c r="A1163" s="5">
         <v>44423</v>
       </c>
       <c r="B1163" t="s">
@@ -21816,12 +21893,12 @@
       <c r="C1163" t="s">
         <v>11</v>
       </c>
-      <c r="D1163" s="11" t="s">
+      <c r="D1163" t="s">
         <v>1609</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1164" s="12">
+      <c r="A1164" s="5">
         <v>44424</v>
       </c>
       <c r="B1164" t="s">
@@ -21830,12 +21907,12 @@
       <c r="C1164" t="s">
         <v>69</v>
       </c>
-      <c r="D1164" s="11" t="s">
+      <c r="D1164" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1165" s="12">
+      <c r="A1165" s="5">
         <v>44428</v>
       </c>
       <c r="B1165" t="s">
@@ -21844,12 +21921,12 @@
       <c r="C1165" t="s">
         <v>333</v>
       </c>
-      <c r="D1165" s="11" t="s">
+      <c r="D1165" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1166" s="12">
+      <c r="A1166" s="5">
         <v>44430</v>
       </c>
       <c r="B1166" t="s">
@@ -21858,12 +21935,12 @@
       <c r="C1166" t="s">
         <v>145</v>
       </c>
-      <c r="D1166" s="11" t="s">
+      <c r="D1166" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1167" s="12">
+      <c r="A1167" s="5">
         <v>44432</v>
       </c>
       <c r="B1167" t="s">
@@ -21872,12 +21949,12 @@
       <c r="C1167" t="s">
         <v>1405</v>
       </c>
-      <c r="D1167" s="11" t="s">
+      <c r="D1167" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1168" s="12">
+      <c r="A1168" s="5">
         <v>44434</v>
       </c>
       <c r="B1168" t="s">
@@ -21886,12 +21963,12 @@
       <c r="C1168" t="s">
         <v>14</v>
       </c>
-      <c r="D1168" s="11" t="s">
+      <c r="D1168" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1169" s="12">
+      <c r="A1169" s="5">
         <v>44437</v>
       </c>
       <c r="B1169" t="s">
@@ -21900,12 +21977,12 @@
       <c r="C1169" t="s">
         <v>83</v>
       </c>
-      <c r="D1169" s="11" t="s">
+      <c r="D1169" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1170" s="12">
+      <c r="A1170" s="5">
         <v>44438</v>
       </c>
       <c r="B1170" t="s">
@@ -21914,12 +21991,12 @@
       <c r="C1170" t="s">
         <v>1423</v>
       </c>
-      <c r="D1170" s="11" t="s">
+      <c r="D1170" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1171" s="12">
+      <c r="A1171" s="5">
         <v>44440</v>
       </c>
       <c r="B1171" t="s">
@@ -21928,12 +22005,12 @@
       <c r="C1171" t="s">
         <v>30</v>
       </c>
-      <c r="D1171" s="11" t="s">
+      <c r="D1171" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1172" s="12">
+      <c r="A1172" s="5">
         <v>44441</v>
       </c>
       <c r="B1172" t="s">
@@ -21942,12 +22019,12 @@
       <c r="C1172" t="s">
         <v>128</v>
       </c>
-      <c r="D1172" s="11" t="s">
+      <c r="D1172" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1173" s="12">
+      <c r="A1173" s="5">
         <v>44441</v>
       </c>
       <c r="B1173" t="s">
@@ -21956,12 +22033,12 @@
       <c r="C1173" t="s">
         <v>99</v>
       </c>
-      <c r="D1173" s="11" t="s">
+      <c r="D1173" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1174" s="12">
+      <c r="A1174" s="5">
         <v>44451</v>
       </c>
       <c r="B1174" t="s">
@@ -21970,12 +22047,12 @@
       <c r="C1174" t="s">
         <v>13</v>
       </c>
-      <c r="D1174" s="11" t="s">
+      <c r="D1174" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1175" s="12">
+      <c r="A1175" s="5">
         <v>44452</v>
       </c>
       <c r="B1175" t="s">
@@ -21984,12 +22061,12 @@
       <c r="C1175" t="s">
         <v>52</v>
       </c>
-      <c r="D1175" s="11" t="s">
+      <c r="D1175" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1176" s="12">
+      <c r="A1176" s="5">
         <v>44456</v>
       </c>
       <c r="B1176" t="s">
@@ -21998,12 +22075,12 @@
       <c r="C1176" t="s">
         <v>99</v>
       </c>
-      <c r="D1176" s="11" t="s">
+      <c r="D1176" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1177" s="12">
+      <c r="A1177" s="5">
         <v>44458</v>
       </c>
       <c r="B1177" t="s">
@@ -22012,12 +22089,12 @@
       <c r="C1177" t="s">
         <v>130</v>
       </c>
-      <c r="D1177" s="11" t="s">
+      <c r="D1177" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1178" s="12">
+      <c r="A1178" s="5">
         <v>44459</v>
       </c>
       <c r="B1178" t="s">
@@ -22026,12 +22103,12 @@
       <c r="C1178" t="s">
         <v>175</v>
       </c>
-      <c r="D1178" s="11" t="s">
+      <c r="D1178" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1179" s="12">
+      <c r="A1179" s="5">
         <v>44459</v>
       </c>
       <c r="B1179" t="s">
@@ -22040,12 +22117,12 @@
       <c r="C1179" t="s">
         <v>30</v>
       </c>
-      <c r="D1179" s="11" t="s">
+      <c r="D1179" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1180" s="12">
+      <c r="A1180" s="5">
         <v>44460</v>
       </c>
       <c r="B1180" t="s">
@@ -22054,12 +22131,12 @@
       <c r="C1180" t="s">
         <v>85</v>
       </c>
-      <c r="D1180" s="11" t="s">
+      <c r="D1180" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1181" s="12">
+      <c r="A1181" s="5">
         <v>44460</v>
       </c>
       <c r="B1181" t="s">
@@ -22068,12 +22145,12 @@
       <c r="C1181" t="s">
         <v>43</v>
       </c>
-      <c r="D1181" s="11" t="s">
+      <c r="D1181" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1182" s="12">
+      <c r="A1182" s="5">
         <v>44462</v>
       </c>
       <c r="B1182" t="s">
@@ -22082,12 +22159,12 @@
       <c r="C1182" t="s">
         <v>88</v>
       </c>
-      <c r="D1182" s="11" t="s">
+      <c r="D1182" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1183" s="12">
+      <c r="A1183" s="5">
         <v>44463</v>
       </c>
       <c r="B1183" t="s">
@@ -22096,12 +22173,12 @@
       <c r="C1183" t="s">
         <v>135</v>
       </c>
-      <c r="D1183" s="11" t="s">
+      <c r="D1183" t="s">
         <v>1626</v>
       </c>
     </row>
     <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1184" s="12">
+      <c r="A1184" s="5">
         <v>44463</v>
       </c>
       <c r="B1184" t="s">
@@ -22110,12 +22187,12 @@
       <c r="C1184" t="s">
         <v>68</v>
       </c>
-      <c r="D1184" s="11" t="s">
+      <c r="D1184" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1185" s="12">
+      <c r="A1185" s="5">
         <v>44469</v>
       </c>
       <c r="B1185" t="s">
@@ -22124,12 +22201,12 @@
       <c r="C1185" t="s">
         <v>170</v>
       </c>
-      <c r="D1185" s="11" t="s">
+      <c r="D1185" t="s">
         <v>1627</v>
       </c>
     </row>
     <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1186" s="12">
+      <c r="A1186" s="5">
         <v>44469</v>
       </c>
       <c r="B1186" t="s">
@@ -22138,12 +22215,12 @@
       <c r="C1186" t="s">
         <v>102</v>
       </c>
-      <c r="D1186" s="11" t="s">
+      <c r="D1186" t="s">
         <v>1628</v>
       </c>
     </row>
     <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1187" s="12">
+      <c r="A1187" s="5">
         <v>44472</v>
       </c>
       <c r="B1187" t="s">
@@ -22152,12 +22229,12 @@
       <c r="C1187" t="s">
         <v>14</v>
       </c>
-      <c r="D1187" s="11" t="s">
+      <c r="D1187" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1188" s="12">
+      <c r="A1188" s="5">
         <v>44472</v>
       </c>
       <c r="B1188" t="s">
@@ -22166,12 +22243,12 @@
       <c r="C1188" t="s">
         <v>121</v>
       </c>
-      <c r="D1188" s="11" t="s">
+      <c r="D1188" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1189" s="12">
+      <c r="A1189" s="5">
         <v>44475</v>
       </c>
       <c r="B1189" t="s">
@@ -22180,12 +22257,12 @@
       <c r="C1189" t="s">
         <v>22</v>
       </c>
-      <c r="D1189" s="11" t="s">
+      <c r="D1189" t="s">
         <v>1629</v>
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1190" s="12">
+      <c r="A1190" s="5">
         <v>44475</v>
       </c>
       <c r="B1190" t="s">
@@ -22194,12 +22271,12 @@
       <c r="C1190" t="s">
         <v>129</v>
       </c>
-      <c r="D1190" s="11" t="s">
+      <c r="D1190" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1191" s="12">
+      <c r="A1191" s="5">
         <v>44476</v>
       </c>
       <c r="B1191" t="s">
@@ -22208,12 +22285,12 @@
       <c r="C1191" t="s">
         <v>63</v>
       </c>
-      <c r="D1191" s="11" t="s">
+      <c r="D1191" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1192" s="12">
+      <c r="A1192" s="5">
         <v>44481</v>
       </c>
       <c r="B1192" t="s">
@@ -22222,12 +22299,12 @@
       <c r="C1192" t="s">
         <v>86</v>
       </c>
-      <c r="D1192" s="11" t="s">
+      <c r="D1192" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1193" s="12">
+      <c r="A1193" s="5">
         <v>44483</v>
       </c>
       <c r="B1193" t="s">
@@ -22236,12 +22313,12 @@
       <c r="C1193" t="s">
         <v>23</v>
       </c>
-      <c r="D1193" s="11" t="s">
+      <c r="D1193" t="s">
         <v>1632</v>
       </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1194" s="12">
+      <c r="A1194" s="5">
         <v>44483</v>
       </c>
       <c r="B1194" t="s">
@@ -22250,12 +22327,12 @@
       <c r="C1194" t="s">
         <v>170</v>
       </c>
-      <c r="D1194" s="11" t="s">
+      <c r="D1194" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1195" s="12">
+      <c r="A1195" s="5">
         <v>44487</v>
       </c>
       <c r="B1195" t="s">
@@ -22264,12 +22341,12 @@
       <c r="C1195" t="s">
         <v>44</v>
       </c>
-      <c r="D1195" s="11" t="s">
+      <c r="D1195" t="s">
         <v>1634</v>
       </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1196" s="12">
+      <c r="A1196" s="5">
         <v>44488</v>
       </c>
       <c r="B1196" t="s">
@@ -22278,12 +22355,12 @@
       <c r="C1196" t="s">
         <v>61</v>
       </c>
-      <c r="D1196" s="11" t="s">
+      <c r="D1196" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1197" s="12">
+      <c r="A1197" s="5">
         <v>44489</v>
       </c>
       <c r="B1197" t="s">
@@ -22292,12 +22369,12 @@
       <c r="C1197" t="s">
         <v>36</v>
       </c>
-      <c r="D1197" s="11" t="s">
+      <c r="D1197" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1198" s="12">
+      <c r="A1198" s="5">
         <v>44490</v>
       </c>
       <c r="B1198" t="s">
@@ -22306,12 +22383,12 @@
       <c r="C1198" t="s">
         <v>63</v>
       </c>
-      <c r="D1198" s="11" t="s">
+      <c r="D1198" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1199" s="12">
+      <c r="A1199" s="5">
         <v>44490</v>
       </c>
       <c r="B1199" t="s">
@@ -22320,12 +22397,12 @@
       <c r="C1199" t="s">
         <v>133</v>
       </c>
-      <c r="D1199" s="11" t="s">
+      <c r="D1199" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1200" s="12">
+      <c r="A1200" s="5">
         <v>44490</v>
       </c>
       <c r="B1200" t="s">
@@ -22334,12 +22411,12 @@
       <c r="C1200" t="s">
         <v>60</v>
       </c>
-      <c r="D1200" s="11" t="s">
+      <c r="D1200" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1201" s="12">
+      <c r="A1201" s="5">
         <v>44491</v>
       </c>
       <c r="B1201" t="s">
@@ -22348,12 +22425,12 @@
       <c r="C1201" t="s">
         <v>1515</v>
       </c>
-      <c r="D1201" s="11" t="s">
+      <c r="D1201" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1202" s="12">
+      <c r="A1202" s="5">
         <v>44494</v>
       </c>
       <c r="B1202" t="s">
@@ -22362,12 +22439,12 @@
       <c r="C1202" t="s">
         <v>139</v>
       </c>
-      <c r="D1202" s="11" t="s">
+      <c r="D1202" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1203" s="12">
+      <c r="A1203" s="5">
         <v>44496</v>
       </c>
       <c r="B1203" t="s">
@@ -22376,12 +22453,12 @@
       <c r="C1203" t="s">
         <v>184</v>
       </c>
-      <c r="D1203" s="11" t="s">
+      <c r="D1203" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1204" s="12">
+      <c r="A1204" s="5">
         <v>44497</v>
       </c>
       <c r="B1204" t="s">
@@ -22390,12 +22467,12 @@
       <c r="C1204" t="s">
         <v>30</v>
       </c>
-      <c r="D1204" s="11" t="s">
+      <c r="D1204" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1205" s="12">
+      <c r="A1205" s="5">
         <v>44498</v>
       </c>
       <c r="B1205" t="s">
@@ -22404,12 +22481,12 @@
       <c r="C1205" t="s">
         <v>77</v>
       </c>
-      <c r="D1205" s="11" t="s">
+      <c r="D1205" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1206" s="12">
+      <c r="A1206" s="5">
         <v>44500</v>
       </c>
       <c r="B1206" t="s">
@@ -22418,12 +22495,12 @@
       <c r="C1206" t="s">
         <v>15</v>
       </c>
-      <c r="D1206" s="11" t="s">
+      <c r="D1206" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1207" s="12">
+      <c r="A1207" s="5">
         <v>44501</v>
       </c>
       <c r="B1207" t="s">
@@ -22432,12 +22509,12 @@
       <c r="C1207" t="s">
         <v>106</v>
       </c>
-      <c r="D1207" s="11" t="s">
+      <c r="D1207" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1208" s="12">
+      <c r="A1208" s="5">
         <v>44506</v>
       </c>
       <c r="B1208" t="s">
@@ -22446,12 +22523,12 @@
       <c r="C1208" t="s">
         <v>41</v>
       </c>
-      <c r="D1208" s="11" t="s">
+      <c r="D1208" t="s">
         <v>1647</v>
       </c>
     </row>
     <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1209" s="12">
+      <c r="A1209" s="5">
         <v>44506</v>
       </c>
       <c r="B1209" t="s">
@@ -22460,12 +22537,12 @@
       <c r="C1209" t="s">
         <v>73</v>
       </c>
-      <c r="D1209" s="11" t="s">
+      <c r="D1209" t="s">
         <v>1648</v>
       </c>
     </row>
     <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1210" s="12">
+      <c r="A1210" s="5">
         <v>44510</v>
       </c>
       <c r="B1210" t="s">
@@ -22474,12 +22551,12 @@
       <c r="C1210" t="s">
         <v>118</v>
       </c>
-      <c r="D1210" s="11" t="s">
+      <c r="D1210" t="s">
         <v>1649</v>
       </c>
     </row>
     <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1211" s="12">
+      <c r="A1211" s="5">
         <v>44511</v>
       </c>
       <c r="B1211" t="s">
@@ -22488,12 +22565,12 @@
       <c r="C1211" t="s">
         <v>73</v>
       </c>
-      <c r="D1211" s="11" t="s">
+      <c r="D1211" t="s">
         <v>1650</v>
       </c>
     </row>
     <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1212" s="12">
+      <c r="A1212" s="5">
         <v>44512</v>
       </c>
       <c r="B1212" t="s">
@@ -22502,12 +22579,12 @@
       <c r="C1212" t="s">
         <v>72</v>
       </c>
-      <c r="D1212" s="11" t="s">
+      <c r="D1212" t="s">
         <v>1633</v>
       </c>
     </row>
     <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1213" s="12">
+      <c r="A1213" s="5">
         <v>44513</v>
       </c>
       <c r="B1213" t="s">
@@ -22516,12 +22593,12 @@
       <c r="C1213" t="s">
         <v>43</v>
       </c>
-      <c r="D1213" s="11" t="s">
+      <c r="D1213" t="s">
         <v>1651</v>
       </c>
     </row>
     <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1214" s="12">
+      <c r="A1214" s="5">
         <v>44515</v>
       </c>
       <c r="B1214" t="s">
@@ -22530,12 +22607,12 @@
       <c r="C1214" t="s">
         <v>157</v>
       </c>
-      <c r="D1214" s="11" t="s">
+      <c r="D1214" t="s">
         <v>1652</v>
       </c>
     </row>
     <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1215" s="12">
+      <c r="A1215" s="5">
         <v>44515</v>
       </c>
       <c r="B1215" t="s">
@@ -22544,12 +22621,12 @@
       <c r="C1215" t="s">
         <v>43</v>
       </c>
-      <c r="D1215" s="11" t="s">
+      <c r="D1215" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1216" s="12">
+      <c r="A1216" s="5">
         <v>44518</v>
       </c>
       <c r="B1216" t="s">
@@ -22558,12 +22635,12 @@
       <c r="C1216" t="s">
         <v>1512</v>
       </c>
-      <c r="D1216" s="11" t="s">
+      <c r="D1216" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1217" s="12">
+      <c r="A1217" s="5">
         <v>44520</v>
       </c>
       <c r="B1217" t="s">
@@ -22572,12 +22649,12 @@
       <c r="C1217" t="s">
         <v>84</v>
       </c>
-      <c r="D1217" s="11" t="s">
+      <c r="D1217" t="s">
         <v>1655</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1218" s="12">
+      <c r="A1218" s="5">
         <v>44522</v>
       </c>
       <c r="B1218" t="s">
@@ -22586,12 +22663,12 @@
       <c r="C1218" t="s">
         <v>17</v>
       </c>
-      <c r="D1218" s="11" t="s">
+      <c r="D1218" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1219" s="12">
+      <c r="A1219" s="5">
         <v>44526</v>
       </c>
       <c r="B1219" t="s">
@@ -22600,12 +22677,12 @@
       <c r="C1219" t="s">
         <v>23</v>
       </c>
-      <c r="D1219" s="11" t="s">
+      <c r="D1219" t="s">
         <v>1656</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1220" s="12">
+      <c r="A1220" s="5">
         <v>44529</v>
       </c>
       <c r="B1220" t="s">
@@ -22614,12 +22691,12 @@
       <c r="C1220" t="s">
         <v>340</v>
       </c>
-      <c r="D1220" s="11" t="s">
+      <c r="D1220" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1221" s="12">
+      <c r="A1221" s="5">
         <v>44530</v>
       </c>
       <c r="B1221" t="s">
@@ -22628,12 +22705,12 @@
       <c r="C1221" t="s">
         <v>170</v>
       </c>
-      <c r="D1221" s="11" t="s">
+      <c r="D1221" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1222" s="12">
+      <c r="A1222" s="5">
         <v>44535</v>
       </c>
       <c r="B1222" t="s">
@@ -22642,12 +22719,12 @@
       <c r="C1222" t="s">
         <v>137</v>
       </c>
-      <c r="D1222" s="11" t="s">
+      <c r="D1222" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1223" s="12">
+      <c r="A1223" s="5">
         <v>44537</v>
       </c>
       <c r="B1223" t="s">
@@ -22656,12 +22733,12 @@
       <c r="C1223" t="s">
         <v>1481</v>
       </c>
-      <c r="D1223" s="11" t="s">
+      <c r="D1223" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1224" s="12">
+      <c r="A1224" s="5">
         <v>44539</v>
       </c>
       <c r="B1224" t="s">
@@ -22670,12 +22747,12 @@
       <c r="C1224" t="s">
         <v>15</v>
       </c>
-      <c r="D1224" s="11" t="s">
+      <c r="D1224" t="s">
         <v>1661</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1225" s="12">
+      <c r="A1225" s="5">
         <v>44543</v>
       </c>
       <c r="B1225" t="s">
@@ -22684,12 +22761,12 @@
       <c r="C1225" t="s">
         <v>48</v>
       </c>
-      <c r="D1225" s="11" t="s">
+      <c r="D1225" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1226" s="12">
+      <c r="A1226" s="5">
         <v>44544</v>
       </c>
       <c r="B1226" t="s">
@@ -22698,12 +22775,12 @@
       <c r="C1226" t="s">
         <v>38</v>
       </c>
-      <c r="D1226" s="11" t="s">
+      <c r="D1226" t="s">
         <v>1662</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1227" s="12">
+      <c r="A1227" s="5">
         <v>44546</v>
       </c>
       <c r="B1227" t="s">
@@ -22712,12 +22789,12 @@
       <c r="C1227" t="s">
         <v>55</v>
       </c>
-      <c r="D1227" s="11" t="s">
+      <c r="D1227" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1228" s="12">
+      <c r="A1228" s="5">
         <v>44547</v>
       </c>
       <c r="B1228" t="s">
@@ -22726,12 +22803,12 @@
       <c r="C1228" t="s">
         <v>27</v>
       </c>
-      <c r="D1228" s="11" t="s">
+      <c r="D1228" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1229" s="12">
+      <c r="A1229" s="5">
         <v>44561</v>
       </c>
       <c r="B1229" t="s">
@@ -22740,2281 +22817,2281 @@
       <c r="C1229" t="s">
         <v>30</v>
       </c>
-      <c r="D1229" s="11" t="s">
+      <c r="D1229" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1230" s="5">
-        <v>44656</v>
-      </c>
-      <c r="B1230" s="2" t="s">
+      <c r="A1230" s="12">
+        <v>44562</v>
+      </c>
+      <c r="B1230" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1230" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1230" s="11" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231" s="12">
+        <v>44562</v>
+      </c>
+      <c r="B1231" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1231" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1231" s="11" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232" s="12">
+        <v>44568</v>
+      </c>
+      <c r="B1232" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1232" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1232" s="11" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233" s="12">
+        <v>44571</v>
+      </c>
+      <c r="B1233" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1230" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1230" s="9" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1231" s="5">
-        <v>44657</v>
-      </c>
-      <c r="B1231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1231" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1231" s="9" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1232" s="5">
-        <v>44662</v>
-      </c>
-      <c r="B1232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1232" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1232" s="9" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1233" s="5">
-        <v>44663</v>
-      </c>
-      <c r="B1233" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1233" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1233" s="9" t="s">
-        <v>1373</v>
+      <c r="C1233" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1233" s="11" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1234" s="5">
-        <v>44663</v>
-      </c>
-      <c r="B1234" s="2" t="s">
+      <c r="A1234" s="12">
+        <v>44572</v>
+      </c>
+      <c r="B1234" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1234" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1234" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235" s="12">
+        <v>44573</v>
+      </c>
+      <c r="B1235" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1235" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1235" s="11" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236" s="12">
+        <v>44575</v>
+      </c>
+      <c r="B1236" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1236" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1236" s="11" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237" s="12">
+        <v>44577</v>
+      </c>
+      <c r="B1237" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1237" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1237" s="11" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238" s="12">
+        <v>44579</v>
+      </c>
+      <c r="B1238" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1238" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1238" s="11" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239" s="12">
+        <v>44583</v>
+      </c>
+      <c r="B1239" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1239" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1239" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240" s="12">
+        <v>44584</v>
+      </c>
+      <c r="B1240" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1240" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1240" s="11" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241" s="12">
+        <v>44589</v>
+      </c>
+      <c r="B1241" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1234" s="2" t="s">
+      <c r="C1241" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1234" s="9" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1235" s="5">
-        <v>44665</v>
-      </c>
-      <c r="B1235" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1235" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1235" s="9" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1236" s="5">
-        <v>44667</v>
-      </c>
-      <c r="B1236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1236" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1236" s="9" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1237" s="5">
-        <v>44668</v>
-      </c>
-      <c r="B1237" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1237" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1237" s="9" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1238" s="5">
-        <v>44675</v>
-      </c>
-      <c r="B1238" s="2" t="s">
+      <c r="D1241" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242" s="12">
+        <v>44592</v>
+      </c>
+      <c r="B1242" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1242" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1242" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243" s="12">
+        <v>44594</v>
+      </c>
+      <c r="B1243" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1243" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1243" s="11" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244" s="12">
+        <v>44595</v>
+      </c>
+      <c r="B1244" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1244" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1244" s="11" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245" s="12">
+        <v>44596</v>
+      </c>
+      <c r="B1245" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1245" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1245" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246" s="12">
+        <v>44600</v>
+      </c>
+      <c r="B1246" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1246" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1246" s="11" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247" s="12">
+        <v>44601</v>
+      </c>
+      <c r="B1247" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1247" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1247" s="11" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248" s="12">
+        <v>44608</v>
+      </c>
+      <c r="B1248" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1248" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1248" s="11" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249" s="12">
+        <v>44613</v>
+      </c>
+      <c r="B1249" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1249" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1249" s="11" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250" s="12">
+        <v>44618</v>
+      </c>
+      <c r="B1250" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1250" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1250" s="11" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251" s="12">
+        <v>44618</v>
+      </c>
+      <c r="B1251" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1251" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1251" s="11" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252" s="12">
+        <v>44626</v>
+      </c>
+      <c r="B1252" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1252" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1252" s="11" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" s="12">
+        <v>44628</v>
+      </c>
+      <c r="B1253" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1253" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1253" s="11" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254" s="12">
+        <v>44632</v>
+      </c>
+      <c r="B1254" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1254" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1254" s="11" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" s="12">
+        <v>44632</v>
+      </c>
+      <c r="B1255" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1255" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1255" s="11" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" s="12">
+        <v>44633</v>
+      </c>
+      <c r="B1256" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1238" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1238" s="9" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1239" s="5">
-        <v>44675</v>
-      </c>
-      <c r="B1239" s="2" t="s">
+      <c r="C1256" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1256" s="11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" s="12">
+        <v>44634</v>
+      </c>
+      <c r="B1257" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1257" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1257" s="11" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" s="12">
+        <v>44636</v>
+      </c>
+      <c r="B1258" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1258" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1258" s="11" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" s="12">
+        <v>44642</v>
+      </c>
+      <c r="B1259" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1259" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1259" s="11" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" s="12">
+        <v>44643</v>
+      </c>
+      <c r="B1260" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1260" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1260" s="11" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" s="12">
+        <v>44646</v>
+      </c>
+      <c r="B1261" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1261" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1261" s="11" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" s="12">
+        <v>44651</v>
+      </c>
+      <c r="B1262" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1239" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1239" s="9" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1240" s="5">
-        <v>44677</v>
-      </c>
-      <c r="B1240" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1240" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1240" s="9" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1241" s="5">
-        <v>44678</v>
-      </c>
-      <c r="B1241" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1241" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1241" s="9" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1242" s="5">
-        <v>44681</v>
-      </c>
-      <c r="B1242" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1242" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1242" s="9" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1243" s="5">
-        <v>44681</v>
-      </c>
-      <c r="B1243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1243" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1243" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1244" s="5">
-        <v>44681</v>
-      </c>
-      <c r="B1244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1244" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1244" s="9" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1245" s="5">
-        <v>44681</v>
-      </c>
-      <c r="B1245" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1245" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1245" s="9" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1246" s="5">
-        <v>44682</v>
-      </c>
-      <c r="B1246" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1246" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1246" s="9" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1247" s="5">
-        <v>44685</v>
-      </c>
-      <c r="B1247" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1247" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1247" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1248" s="5">
-        <v>44688</v>
-      </c>
-      <c r="B1248" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1248" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1248" s="9" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1249" s="5">
-        <v>44689</v>
-      </c>
-      <c r="B1249" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1249" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1249" s="9" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1250" s="5">
-        <v>44691</v>
-      </c>
-      <c r="B1250" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1250" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1250" s="9" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1251" s="5">
-        <v>44692</v>
-      </c>
-      <c r="B1251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1251" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1251" s="9" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1252" s="5">
-        <v>44695</v>
-      </c>
-      <c r="B1252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1252" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1252" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1253" s="5">
-        <v>44695</v>
-      </c>
-      <c r="B1253" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1253" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1253" s="9" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1254" s="5">
-        <v>44695</v>
-      </c>
-      <c r="B1254" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1254" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1254" s="9" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1255" s="5">
-        <v>44696</v>
-      </c>
-      <c r="B1255" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1255" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D1255" s="9" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1256" s="5">
-        <v>44698</v>
-      </c>
-      <c r="B1256" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1256" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1256" s="9" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1257" s="5">
-        <v>44699</v>
-      </c>
-      <c r="B1257" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1257" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1257" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1258" s="5">
-        <v>44700</v>
-      </c>
-      <c r="B1258" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1258" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1258" s="9" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1259" s="5">
-        <v>44701</v>
-      </c>
-      <c r="B1259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1259" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1259" s="9" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1260" s="5">
-        <v>44702</v>
-      </c>
-      <c r="B1260" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1260" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1260" s="10" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1261" s="5">
-        <v>44704</v>
-      </c>
-      <c r="B1261" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1261" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1261" s="9" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1262" s="5">
-        <v>44705</v>
-      </c>
-      <c r="B1262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1262" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1262" s="9" t="s">
-        <v>1399</v>
+      <c r="C1262" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1262" s="11" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1263" s="5">
-        <v>44705</v>
+        <v>44656</v>
       </c>
       <c r="B1263" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1263" s="2" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="D1263" s="9" t="s">
-        <v>1400</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1264" s="5">
-        <v>44706</v>
+        <v>44657</v>
       </c>
       <c r="B1264" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1264" s="2" t="s">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="D1264" s="9" t="s">
-        <v>1255</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1265" s="5">
-        <v>44706</v>
+        <v>44662</v>
       </c>
       <c r="B1265" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1265" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D1265" s="9" t="s">
-        <v>1401</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1266" s="5">
-        <v>44709</v>
+        <v>44663</v>
       </c>
       <c r="B1266" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1266" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D1266" s="9" t="s">
-        <v>1402</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1267" s="5">
-        <v>44709</v>
+        <v>44663</v>
       </c>
       <c r="B1267" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1267" s="2" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="D1267" s="9" t="s">
-        <v>1403</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1268" s="5">
-        <v>44714</v>
+        <v>44665</v>
       </c>
       <c r="B1268" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1268" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D1268" s="9" t="s">
-        <v>1404</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1269" s="5">
-        <v>44715</v>
+        <v>44667</v>
       </c>
       <c r="B1269" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1269" s="2" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="D1269" s="9" t="s">
-        <v>345</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1270" s="5">
-        <v>44717</v>
+        <v>44668</v>
       </c>
       <c r="B1270" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1270" s="2" t="s">
-        <v>1405</v>
+        <v>147</v>
       </c>
       <c r="D1270" s="9" t="s">
-        <v>1406</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1271" s="5">
-        <v>44720</v>
+        <v>44675</v>
       </c>
       <c r="B1271" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1271" s="2" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D1271" s="9" t="s">
-        <v>1407</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1272" s="5">
-        <v>44720</v>
+        <v>44675</v>
       </c>
       <c r="B1272" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1272" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D1272" s="9" t="s">
-        <v>1408</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1273" s="5">
-        <v>44723</v>
+        <v>44677</v>
       </c>
       <c r="B1273" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1273" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="D1273" s="9" t="s">
-        <v>1144</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1274" s="5">
-        <v>44727</v>
+        <v>44678</v>
       </c>
       <c r="B1274" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1274" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D1274" s="9" t="s">
-        <v>1409</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1275" s="5">
-        <v>44729</v>
+        <v>44681</v>
       </c>
       <c r="B1275" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1275" s="2" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="D1275" s="9" t="s">
-        <v>1410</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1276" s="5">
-        <v>44729</v>
+        <v>44681</v>
       </c>
       <c r="B1276" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1276" s="2" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="D1276" s="9" t="s">
-        <v>1411</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1277" s="5">
-        <v>44730</v>
+        <v>44681</v>
       </c>
       <c r="B1277" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1277" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D1277" s="9" t="s">
-        <v>1412</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1278" s="5">
-        <v>44735</v>
+        <v>44681</v>
       </c>
       <c r="B1278" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1278" s="2" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="D1278" s="9" t="s">
-        <v>1413</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1279" s="5">
-        <v>44737</v>
+        <v>44682</v>
       </c>
       <c r="B1279" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1279" s="2" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="D1279" s="9" t="s">
-        <v>955</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1280" s="5">
-        <v>44737</v>
+        <v>44685</v>
       </c>
       <c r="B1280" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1280" s="2" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="D1280" s="9" t="s">
-        <v>1414</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1281" s="5">
-        <v>44739</v>
+        <v>44688</v>
       </c>
       <c r="B1281" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1281" s="2" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="D1281" s="9" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1282" s="5">
-        <v>44742</v>
+        <v>44689</v>
       </c>
       <c r="B1282" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1282" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D1282" s="9" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1283" s="5">
-        <v>44744</v>
+        <v>44691</v>
       </c>
       <c r="B1283" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1283" s="2" t="s">
-        <v>133</v>
+        <v>342</v>
       </c>
       <c r="D1283" s="9" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1284" s="5">
-        <v>44751</v>
+        <v>44692</v>
       </c>
       <c r="B1284" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1284" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D1284" s="9" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1285" s="5">
-        <v>44753</v>
+        <v>44695</v>
       </c>
       <c r="B1285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1285" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="D1285" s="9" t="s">
-        <v>1419</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1286" s="5">
-        <v>44754</v>
+        <v>44695</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C1286" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="D1286" s="9" t="s">
-        <v>1420</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1287" s="5">
-        <v>44755</v>
+        <v>44695</v>
       </c>
       <c r="B1287" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1287" s="2" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="D1287" s="9" t="s">
-        <v>939</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1288" s="5">
-        <v>44755</v>
+        <v>44696</v>
       </c>
       <c r="B1288" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1288" s="2" t="s">
-        <v>101</v>
+        <v>1392</v>
       </c>
       <c r="D1288" s="9" t="s">
-        <v>345</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1289" s="5">
-        <v>44756</v>
+        <v>44698</v>
       </c>
       <c r="B1289" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1289" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="D1289" s="9" t="s">
-        <v>1421</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1290" s="5">
-        <v>44756</v>
+        <v>44699</v>
       </c>
       <c r="B1290" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1290" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="D1290" s="9" t="s">
-        <v>1422</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1291" s="5">
-        <v>44757</v>
+        <v>44700</v>
       </c>
       <c r="B1291" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1291" s="2" t="s">
-        <v>1423</v>
+        <v>50</v>
       </c>
       <c r="D1291" s="9" t="s">
-        <v>1424</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1292" s="5">
-        <v>44757</v>
+        <v>44701</v>
       </c>
       <c r="B1292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1292" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D1292" s="9" t="s">
-        <v>1425</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1293" s="5">
-        <v>44761</v>
+        <v>44702</v>
       </c>
       <c r="B1293" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1293" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1293" s="9" t="s">
-        <v>1426</v>
+        <v>77</v>
+      </c>
+      <c r="D1293" s="10" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1294" s="5">
-        <v>44763</v>
+        <v>44704</v>
       </c>
       <c r="B1294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1294" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D1294" s="9" t="s">
-        <v>1427</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1295" s="5">
-        <v>44765</v>
+        <v>44705</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1295" s="2" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="D1295" s="9" t="s">
-        <v>1428</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1296" s="5">
-        <v>44769</v>
+        <v>44705</v>
       </c>
       <c r="B1296" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1296" s="2" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="D1296" s="9" t="s">
-        <v>1429</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1297" s="5">
-        <v>44769</v>
+        <v>44706</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1297" s="2" t="s">
-        <v>62</v>
+        <v>335</v>
       </c>
       <c r="D1297" s="9" t="s">
-        <v>1430</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1298" s="5">
-        <v>44772</v>
+        <v>44706</v>
       </c>
       <c r="B1298" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1298" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D1298" s="9" t="s">
-        <v>1431</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1299" s="5">
-        <v>44773</v>
+        <v>44709</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1299" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D1299" s="9" t="s">
-        <v>1432</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1300" s="5">
-        <v>44774</v>
+        <v>44709</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1300" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="D1300" s="9" t="s">
-        <v>1433</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1301" s="5">
-        <v>44776</v>
+        <v>44714</v>
       </c>
       <c r="B1301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1301" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D1301" s="9" t="s">
-        <v>1434</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1302" s="5">
-        <v>44777</v>
+        <v>44715</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1302" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D1302" s="9" t="s">
-        <v>1435</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1303" s="5">
-        <v>44778</v>
+        <v>44717</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1303" s="2" t="s">
-        <v>140</v>
+        <v>1405</v>
       </c>
       <c r="D1303" s="9" t="s">
-        <v>1436</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1304" s="5">
-        <v>44780</v>
+        <v>44720</v>
       </c>
       <c r="B1304" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1304" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1304" s="9" t="s">
-        <v>1437</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1305" s="5">
-        <v>44780</v>
+        <v>44720</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1305" s="2" t="s">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="D1305" s="9" t="s">
-        <v>1438</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1306" s="5">
-        <v>44782</v>
+        <v>44723</v>
       </c>
       <c r="B1306" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1306" s="2" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D1306" s="9" t="s">
-        <v>1439</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1307" s="5">
-        <v>44783</v>
+        <v>44727</v>
       </c>
       <c r="B1307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1307" s="2" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="D1307" s="9" t="s">
-        <v>1440</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1308" s="5">
-        <v>44787</v>
+        <v>44729</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1308" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D1308" s="9" t="s">
-        <v>832</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1309" s="5">
-        <v>44791</v>
+        <v>44729</v>
       </c>
       <c r="B1309" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1309" s="2" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="D1309" s="9" t="s">
-        <v>1441</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1310" s="5">
-        <v>44791</v>
+        <v>44730</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1310" s="2" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="D1310" s="9" t="s">
-        <v>1442</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1311" s="5">
-        <v>44792</v>
+        <v>44735</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1311" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D1311" s="9" t="s">
-        <v>421</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1312" s="5">
-        <v>44793</v>
+        <v>44737</v>
       </c>
       <c r="B1312" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1312" s="2" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="D1312" s="9" t="s">
-        <v>1443</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1313" s="5">
-        <v>44793</v>
+        <v>44737</v>
       </c>
       <c r="B1313" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1313" s="2" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D1313" s="9" t="s">
-        <v>1444</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1314" s="5">
-        <v>44793</v>
+        <v>44739</v>
       </c>
       <c r="B1314" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1314" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D1314" s="9" t="s">
-        <v>1445</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1315" s="5">
-        <v>44794</v>
+        <v>44742</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1315" s="2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D1315" s="9" t="s">
-        <v>915</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1316" s="5">
-        <v>44797</v>
+        <v>44744</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1316" s="2" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="D1316" s="9" t="s">
-        <v>1446</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1317" s="5">
-        <v>44800</v>
+        <v>44751</v>
       </c>
       <c r="B1317" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1317" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D1317" s="9" t="s">
-        <v>1447</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1318" s="5">
-        <v>44801</v>
+        <v>44753</v>
       </c>
       <c r="B1318" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1318" s="2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D1318" s="9" t="s">
-        <v>1448</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1319" s="5">
-        <v>44805</v>
+        <v>44754</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1319" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D1319" s="9" t="s">
-        <v>1449</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1320" s="5">
-        <v>44809</v>
+        <v>44755</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1320" s="2" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="D1320" s="9" t="s">
-        <v>1450</v>
+        <v>939</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1321" s="5">
-        <v>44813</v>
+        <v>44755</v>
       </c>
       <c r="B1321" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1321" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D1321" s="9" t="s">
-        <v>1451</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1322" s="5">
-        <v>44817</v>
+        <v>44756</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1322" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D1322" s="9" t="s">
-        <v>1452</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1323" s="5">
-        <v>44819</v>
+        <v>44756</v>
       </c>
       <c r="B1323" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1323" s="2" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D1323" s="9" t="s">
-        <v>1453</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1324" s="5">
-        <v>44821</v>
+        <v>44757</v>
       </c>
       <c r="B1324" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1324" s="2" t="s">
-        <v>181</v>
+        <v>1423</v>
       </c>
       <c r="D1324" s="9" t="s">
-        <v>1454</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1325" s="5">
-        <v>44822</v>
+        <v>44757</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1325" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="D1325" s="9" t="s">
-        <v>1455</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1326" s="5">
-        <v>44830</v>
+        <v>44761</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1326" s="2" t="s">
-        <v>128</v>
+        <v>337</v>
       </c>
       <c r="D1326" s="9" t="s">
-        <v>1456</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1327" s="5">
-        <v>44833</v>
+        <v>44763</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1327" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D1327" s="9" t="s">
-        <v>1457</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1328" s="5">
-        <v>44834</v>
+        <v>44765</v>
       </c>
       <c r="B1328" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1328" s="2" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="D1328" s="9" t="s">
-        <v>1458</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" s="5">
-        <v>44836</v>
+        <v>44769</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1329" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D1329" s="9" t="s">
-        <v>1459</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1330" s="5">
-        <v>44836</v>
+        <v>44769</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1330" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D1330" s="9" t="s">
-        <v>1460</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1331" s="5">
-        <v>44840</v>
+        <v>44772</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1331" s="2" t="s">
-        <v>333</v>
+        <v>16</v>
       </c>
       <c r="D1331" s="9" t="s">
-        <v>1461</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1332" s="5">
-        <v>44840</v>
+        <v>44773</v>
       </c>
       <c r="B1332" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1332" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D1332" s="9" t="s">
-        <v>1462</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1333" s="5">
-        <v>44841</v>
+        <v>44774</v>
       </c>
       <c r="B1333" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1333" s="2" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="D1333" s="9" t="s">
-        <v>1463</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" s="5">
-        <v>44841</v>
+        <v>44776</v>
       </c>
       <c r="B1334" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1334" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D1334" s="9" t="s">
-        <v>1464</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" s="5">
-        <v>44841</v>
+        <v>44777</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1335" s="2" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D1335" s="9" t="s">
-        <v>1465</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1336" s="5">
-        <v>44849</v>
+        <v>44778</v>
       </c>
       <c r="B1336" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1336" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D1336" s="9" t="s">
-        <v>1466</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" s="5">
-        <v>44853</v>
+        <v>44780</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1337" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D1337" s="9" t="s">
-        <v>1467</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1338" s="5">
-        <v>44853</v>
+        <v>44780</v>
       </c>
       <c r="B1338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1338" s="2" t="s">
-        <v>133</v>
+        <v>340</v>
       </c>
       <c r="D1338" s="9" t="s">
-        <v>955</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1339" s="5">
-        <v>44857</v>
+        <v>44782</v>
       </c>
       <c r="B1339" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1339" s="2" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D1339" s="9" t="s">
-        <v>1468</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" s="5">
-        <v>44859</v>
+        <v>44783</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1340" s="2" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D1340" s="9" t="s">
-        <v>1469</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" s="5">
-        <v>44861</v>
+        <v>44787</v>
       </c>
       <c r="B1341" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1341" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D1341" s="9" t="s">
-        <v>1470</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1342" s="5">
-        <v>44864</v>
+        <v>44791</v>
       </c>
       <c r="B1342" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1342" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D1342" s="9" t="s">
-        <v>1471</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" s="5">
-        <v>44865</v>
+        <v>44791</v>
       </c>
       <c r="B1343" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1343" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D1343" s="9" t="s">
-        <v>1472</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1344" s="5">
-        <v>44865</v>
+        <v>44792</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1344" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D1344" s="9" t="s">
-        <v>1267</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1345" s="5">
-        <v>44866</v>
+        <v>44793</v>
       </c>
       <c r="B1345" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1345" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D1345" s="9" t="s">
-        <v>1473</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1346" s="5">
-        <v>44867</v>
+        <v>44793</v>
       </c>
       <c r="B1346" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1346" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D1346" s="9" t="s">
-        <v>1474</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1347" s="5">
-        <v>44867</v>
+        <v>44793</v>
       </c>
       <c r="B1347" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1347" s="2" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="D1347" s="9" t="s">
-        <v>1475</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1348" s="5">
-        <v>44868</v>
+        <v>44794</v>
       </c>
       <c r="B1348" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1348" s="2" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="D1348" s="9" t="s">
-        <v>1476</v>
+        <v>915</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1349" s="5">
-        <v>44871</v>
+        <v>44797</v>
       </c>
       <c r="B1349" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1349" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D1349" s="9" t="s">
-        <v>1477</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1350" s="5">
-        <v>44871</v>
+        <v>44800</v>
       </c>
       <c r="B1350" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1350" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D1350" s="9" t="s">
-        <v>1478</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1351" s="5">
-        <v>44871</v>
+        <v>44801</v>
       </c>
       <c r="B1351" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1351" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D1351" s="9" t="s">
-        <v>1479</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1352" s="5">
-        <v>44872</v>
+        <v>44805</v>
       </c>
       <c r="B1352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1352" s="2" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="D1352" s="9" t="s">
-        <v>1480</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1353" s="5">
-        <v>44876</v>
+        <v>44809</v>
       </c>
       <c r="B1353" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1353" s="2" t="s">
-        <v>1481</v>
+        <v>33</v>
       </c>
       <c r="D1353" s="9" t="s">
-        <v>1482</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1354" s="5">
-        <v>44882</v>
+        <v>44813</v>
       </c>
       <c r="B1354" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1354" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D1354" s="9" t="s">
-        <v>1483</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1355" s="5">
-        <v>44885</v>
+        <v>44817</v>
       </c>
       <c r="B1355" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1355" s="2" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D1355" s="9" t="s">
-        <v>799</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1356" s="5">
-        <v>44885</v>
+        <v>44819</v>
       </c>
       <c r="B1356" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1356" s="2" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D1356" s="9" t="s">
-        <v>1484</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1357" s="5">
-        <v>44886</v>
+        <v>44821</v>
       </c>
       <c r="B1357" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1357" s="2" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="D1357" s="9" t="s">
-        <v>1485</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1358" s="5">
-        <v>44888</v>
+        <v>44822</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1358" s="2" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D1358" s="9" t="s">
-        <v>1486</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1359" s="5">
-        <v>44888</v>
+        <v>44830</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1359" s="2" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="D1359" s="9" t="s">
-        <v>1487</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1360" s="5">
-        <v>44890</v>
+        <v>44833</v>
       </c>
       <c r="B1360" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1360" s="2" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D1360" s="9" t="s">
-        <v>1488</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1361" s="5">
-        <v>44892</v>
+        <v>44834</v>
       </c>
       <c r="B1361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1361" s="2" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D1361" s="9" t="s">
-        <v>345</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1362" s="5">
-        <v>44894</v>
+        <v>44836</v>
       </c>
       <c r="B1362" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1362" s="2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D1362" s="9" t="s">
-        <v>1489</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1363" s="5">
-        <v>44897</v>
+        <v>44836</v>
       </c>
       <c r="B1363" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1363" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="D1363" s="9" t="s">
-        <v>1490</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1364" s="5">
-        <v>44898</v>
+        <v>44840</v>
       </c>
       <c r="B1364" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1364" s="2" t="s">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="D1364" s="9" t="s">
-        <v>1491</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1365" s="5">
-        <v>44900</v>
+        <v>44840</v>
       </c>
       <c r="B1365" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1365" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D1365" s="9" t="s">
-        <v>1492</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1366" s="5">
-        <v>44901</v>
+        <v>44841</v>
       </c>
       <c r="B1366" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1366" s="2" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="D1366" s="9" t="s">
-        <v>1493</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1367" s="5">
-        <v>44904</v>
+        <v>44841</v>
       </c>
       <c r="B1367" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1367" s="2" t="s">
-        <v>1494</v>
+        <v>100</v>
       </c>
       <c r="D1367" s="9" t="s">
-        <v>1495</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1368" s="5">
-        <v>44907</v>
+        <v>44841</v>
       </c>
       <c r="B1368" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1368" s="2" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D1368" s="9" t="s">
-        <v>1496</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1369" s="5">
-        <v>44909</v>
+        <v>44849</v>
       </c>
       <c r="B1369" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1369" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D1369" s="9" t="s">
-        <v>1497</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1370" s="5">
-        <v>44911</v>
+        <v>44853</v>
       </c>
       <c r="B1370" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1370" s="2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D1370" s="9" t="s">
-        <v>1498</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1371" s="5">
-        <v>44912</v>
+        <v>44853</v>
       </c>
       <c r="B1371" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1371" s="2" t="s">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="D1371" s="9" t="s">
-        <v>1499</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1372" s="5">
-        <v>44917</v>
+        <v>44857</v>
       </c>
       <c r="B1372" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1372" s="2" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="D1372" s="9" t="s">
-        <v>1321</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1373" s="5">
-        <v>44920</v>
+        <v>44859</v>
       </c>
       <c r="B1373" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1373" s="2" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D1373" s="9" t="s">
-        <v>1500</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1374" s="5">
-        <v>44929</v>
+        <v>44861</v>
       </c>
       <c r="B1374" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1374" s="2" t="s">
-        <v>1423</v>
+        <v>118</v>
       </c>
       <c r="D1374" s="9" t="s">
-        <v>1501</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1375" s="5">
-        <v>44930</v>
+        <v>44864</v>
       </c>
       <c r="B1375" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1375" s="2" t="s">
-        <v>336</v>
+        <v>48</v>
       </c>
       <c r="D1375" s="9" t="s">
-        <v>345</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1376" s="5">
-        <v>44930</v>
+        <v>44865</v>
       </c>
       <c r="B1376" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1376" s="2" t="s">
-        <v>1502</v>
+        <v>99</v>
       </c>
       <c r="D1376" s="9" t="s">
-        <v>1503</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1377" s="5">
-        <v>44934</v>
+        <v>44865</v>
       </c>
       <c r="B1377" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1377" s="2" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="D1377" s="9" t="s">
-        <v>1504</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1378" s="5">
-        <v>44939</v>
+        <v>44866</v>
       </c>
       <c r="B1378" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1378" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="D1378" s="9" t="s">
-        <v>1207</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1379" s="5">
-        <v>44939</v>
+        <v>44867</v>
       </c>
       <c r="B1379" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1379" s="2" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D1379" s="9" t="s">
-        <v>1207</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1380" s="5">
-        <v>44943</v>
+        <v>44867</v>
       </c>
       <c r="B1380" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1380" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D1380" s="9" t="s">
-        <v>1505</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1381" s="5">
-        <v>44945</v>
+        <v>44868</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1381" s="2" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="D1381" s="9" t="s">
-        <v>1506</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1382" s="5">
-        <v>44946</v>
+        <v>44871</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1382" s="2" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="D1382" s="9" t="s">
-        <v>1507</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1383" s="5">
-        <v>44947</v>
+        <v>44871</v>
       </c>
       <c r="B1383" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C1383" s="2" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="D1383" s="9" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1384" s="5">
-        <v>44948</v>
+        <v>44871</v>
       </c>
       <c r="B1384" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1384" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D1384" s="9" t="s">
-        <v>1508</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1385" s="5">
-        <v>44950</v>
+        <v>44872</v>
       </c>
       <c r="B1385" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C1385" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D1385" s="9" t="s">
-        <v>1509</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1386" s="5">
-        <v>44951</v>
+        <v>44876</v>
       </c>
       <c r="B1386" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1386" s="2" t="s">
-        <v>83</v>
+        <v>1481</v>
       </c>
       <c r="D1386" s="9" t="s">
-        <v>1510</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1387" s="5">
-        <v>44951</v>
+        <v>44882</v>
       </c>
       <c r="B1387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1387" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D1387" s="9" t="s">
-        <v>1349</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1388" s="5">
-        <v>44952</v>
+        <v>44885</v>
       </c>
       <c r="B1388" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1388" s="2" t="s">
-        <v>343</v>
+        <v>119</v>
       </c>
       <c r="D1388" s="9" t="s">
-        <v>1350</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1389" s="5">
-        <v>44955</v>
+        <v>44885</v>
       </c>
       <c r="B1389" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1389" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D1389" s="9" t="s">
-        <v>1351</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1390" s="5">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B1390" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1390" s="2" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D1390" s="9" t="s">
-        <v>1352</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1391" s="5">
-        <v>44960</v>
+        <v>44888</v>
       </c>
       <c r="B1391" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1391" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D1391" s="9" t="s">
-        <v>1353</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1392" s="5">
-        <v>44964</v>
+        <v>44888</v>
       </c>
       <c r="B1392" s="2" t="s">
         <v>8</v>
@@ -25023,32 +25100,32 @@
         <v>18</v>
       </c>
       <c r="D1392" s="9" t="s">
-        <v>1354</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1393" s="5">
-        <v>44965</v>
+        <v>44890</v>
       </c>
       <c r="B1393" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1393" s="2" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="D1393" s="9" t="s">
-        <v>1355</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1394" s="5">
-        <v>44965</v>
+        <v>44892</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1394" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D1394" s="9" t="s">
         <v>345</v>
@@ -25056,281 +25133,743 @@
     </row>
     <row r="1395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1395" s="5">
-        <v>44967</v>
+        <v>44894</v>
       </c>
       <c r="B1395" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1395" s="2" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="D1395" s="9" t="s">
-        <v>958</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1396" s="5">
-        <v>44969</v>
+        <v>44897</v>
       </c>
       <c r="B1396" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1396" s="2" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="D1396" s="9" t="s">
-        <v>1356</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1397" s="5">
-        <v>44970</v>
+        <v>44898</v>
       </c>
       <c r="B1397" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1397" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D1397" s="9" t="s">
-        <v>1357</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1398" s="5">
-        <v>44972</v>
+        <v>44900</v>
       </c>
       <c r="B1398" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1398" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D1398" s="9" t="s">
-        <v>1358</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1399" s="5">
-        <v>44973</v>
+        <v>44901</v>
       </c>
       <c r="B1399" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1399" s="2" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="D1399" s="9" t="s">
-        <v>382</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1400" s="5">
-        <v>44973</v>
+        <v>44904</v>
       </c>
       <c r="B1400" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1400" s="2" t="s">
-        <v>130</v>
+        <v>1494</v>
       </c>
       <c r="D1400" s="9" t="s">
-        <v>1359</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1401" s="5">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B1401" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1401" s="2" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="D1401" s="9" t="s">
-        <v>984</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1402" s="5">
-        <v>44975</v>
+        <v>44909</v>
       </c>
       <c r="B1402" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1402" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D1402" s="9" t="s">
-        <v>1360</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1403" s="5">
-        <v>44980</v>
+        <v>44911</v>
       </c>
       <c r="B1403" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1403" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D1403" s="9" t="s">
-        <v>1361</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1404" s="5">
-        <v>44981</v>
+        <v>44912</v>
       </c>
       <c r="B1404" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1404" s="2" t="s">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="D1404" s="9" t="s">
-        <v>1362</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1405" s="5">
-        <v>44982</v>
+        <v>44917</v>
       </c>
       <c r="B1405" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1405" s="2" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="D1405" s="9" t="s">
-        <v>1363</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1406" s="5">
-        <v>44990</v>
+        <v>44920</v>
       </c>
       <c r="B1406" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1406" s="2" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D1406" s="9" t="s">
-        <v>958</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1407" s="5">
-        <v>44992</v>
+        <v>44929</v>
       </c>
       <c r="B1407" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1407" s="2" t="s">
-        <v>150</v>
+        <v>1423</v>
       </c>
       <c r="D1407" s="9" t="s">
-        <v>1364</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1408" s="5">
-        <v>45000</v>
+        <v>44930</v>
       </c>
       <c r="B1408" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1408" s="2" t="s">
-        <v>1365</v>
+        <v>336</v>
       </c>
       <c r="D1408" s="9" t="s">
-        <v>1366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1409" s="5">
-        <v>45004</v>
+        <v>44930</v>
       </c>
       <c r="B1409" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1409" s="2" t="s">
-        <v>67</v>
+        <v>1502</v>
       </c>
       <c r="D1409" s="9" t="s">
-        <v>1367</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1410" s="5">
-        <v>45009</v>
+        <v>44934</v>
       </c>
       <c r="B1410" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1410" s="2" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="D1410" s="9" t="s">
-        <v>345</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1411" s="5">
-        <v>45009</v>
+        <v>44939</v>
       </c>
       <c r="B1411" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1411" s="2" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D1411" s="9" t="s">
-        <v>1368</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1412" s="5">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B1412" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1412" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D1412" s="9" t="s">
-        <v>1369</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1413" s="5">
-        <v>45016</v>
+        <v>44943</v>
       </c>
       <c r="B1413" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1413" s="2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D1413" s="9" t="s">
-        <v>345</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1414" s="5">
+        <v>44945</v>
+      </c>
+      <c r="B1414" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1414" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1414" s="9" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1415" s="5">
+        <v>44946</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1415" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1415" s="9" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1416" s="5">
+        <v>44947</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1416" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1416" s="9" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1417" s="5">
+        <v>44948</v>
+      </c>
+      <c r="B1417" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1417" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1417" s="9" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1418" s="5">
+        <v>44950</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1418" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1418" s="9" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1419" s="5">
+        <v>44951</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1419" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1419" s="9" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1420" s="5">
+        <v>44951</v>
+      </c>
+      <c r="B1420" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1420" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1420" s="9" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1421" s="5">
+        <v>44952</v>
+      </c>
+      <c r="B1421" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1421" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1421" s="9" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1422" s="5">
+        <v>44955</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1422" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1422" s="9" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1423" s="5">
+        <v>44956</v>
+      </c>
+      <c r="B1423" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1423" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1423" s="9" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1424" s="5">
+        <v>44960</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1424" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1424" s="9" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1425" s="5">
+        <v>44964</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1425" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1425" s="9" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1426" s="5">
+        <v>44965</v>
+      </c>
+      <c r="B1426" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1426" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1426" s="9" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1427" s="5">
+        <v>44965</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1427" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1427" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1428" s="5">
+        <v>44967</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1428" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1428" s="9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1429" s="5">
+        <v>44969</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1429" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1429" s="9" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1430" s="5">
+        <v>44970</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1430" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1430" s="9" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1431" s="5">
+        <v>44972</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1431" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1431" s="9" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1432" s="5">
+        <v>44973</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1432" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1432" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1433" s="5">
+        <v>44973</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1433" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1433" s="9" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1434" s="5">
+        <v>44974</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1434" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1434" s="9" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1435" s="5">
+        <v>44975</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1435" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1435" s="9" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1436" s="5">
+        <v>44980</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1436" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1436" s="9" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1437" s="5">
+        <v>44981</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1437" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1437" s="9" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1438" s="5">
+        <v>44982</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1438" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1438" s="9" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1439" s="5">
+        <v>44990</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1439" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1439" s="9" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1440" s="5">
+        <v>44992</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1440" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1440" s="9" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1441" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1441" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1441" s="9" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1442" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1442" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1442" s="9" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1443" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1443" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1443" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1444" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1444" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1444" s="9" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1445" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1445" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1445" s="9" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1446" s="5">
         <v>45016</v>
       </c>
-      <c r="B1414" s="2" t="s">
+      <c r="B1446" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1446" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1446" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1447" s="5">
+        <v>45016</v>
+      </c>
+      <c r="B1447" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1414" s="2" t="s">
+      <c r="C1447" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1414" s="9" t="s">
+      <c r="D1447" s="9" t="s">
         <v>345</v>
       </c>
     </row>
@@ -25348,9 +25887,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25565,27 +26107,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35FF093F-688C-43B8-9F2E-44A7386516A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6DC9A3-4EF5-412E-B73F-76A65CEACE8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a6dbf9da-d3b7-4b2a-8fdd-8ae13a59ab60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b07dad5e-2d73-4c3d-9e45-daed4f37dca0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25610,9 +26140,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC6DC9A3-4EF5-412E-B73F-76A65CEACE8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35FF093F-688C-43B8-9F2E-44A7386516A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b07dad5e-2d73-4c3d-9e45-daed4f37dca0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a6dbf9da-d3b7-4b2a-8fdd-8ae13a59ab60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>